--- a/lc.xlsx
+++ b/lc.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ming/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ming/Documents/github/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1220" yWindow="3160" windowWidth="22060" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>

--- a/lc.xlsx
+++ b/lc.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="3160" windowWidth="22060" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="11560" yWindow="3160" windowWidth="22060" windowHeight="14840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
+    <sheet name="442" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>index:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +135,26 @@
     <rPh sb="8" eb="9">
       <t>wei zhi</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nums</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,6 +215,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G8:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,4 +683,220 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="6" style="4"/>
+    <col min="10" max="10" width="6" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="6" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6</v>
+      </c>
+      <c r="J16" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>7</v>
+      </c>
+      <c r="G17" s="4">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lc.xlsx
+++ b/lc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="3160" windowWidth="22060" windowHeight="14840" tabRatio="500" activeTab="1"/>
+    <workbookView minimized="1" xWindow="4060" yWindow="3160" windowWidth="22060" windowHeight="14840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,6 +218,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J18"/>
+  <dimension ref="B3:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,7 +703,7 @@
     <col min="11" max="16384" width="6" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -723,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C4" s="4">
         <v>1</v>
       </c>
@@ -742,8 +745,12 @@
       <c r="H4" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4">
         <v>-1</v>
       </c>
@@ -753,8 +760,24 @@
       <c r="H5" s="4">
         <v>-6</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -770,8 +793,12 @@
       <c r="F8" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>1</v>
       </c>
@@ -784,8 +811,12 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>-1</v>
       </c>
@@ -793,7 +824,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
@@ -804,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -815,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
@@ -826,7 +857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
@@ -898,5 +929,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/lc.xlsx
+++ b/lc.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="4060" yWindow="3160" windowWidth="22060" windowHeight="14840" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9300" yWindow="5780" windowWidth="22060" windowHeight="14840" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
     <sheet name="442" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>index:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +156,22 @@
   </si>
   <si>
     <t>nums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index.next=head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>len-k%len</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +244,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +531,7 @@
   <dimension ref="G8:T23"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -931,4 +960,68 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="6" style="4"/>
+    <col min="9" max="9" width="22.83203125" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="6" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lc.xlsx
+++ b/lc.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="5780" windowWidth="22060" windowHeight="14840" tabRatio="500" activeTab="2"/>
+    <workbookView minimized="1" xWindow="6740" yWindow="460" windowWidth="22060" windowHeight="14840" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
     <sheet name="442" sheetId="2" r:id="rId2"/>
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
+    <sheet name="subsets" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>index:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +173,105 @@
   </si>
   <si>
     <t>len-k%len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <rPh sb="0" eb="1">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helper(list:[1],index: 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[, [1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helper(list:[1, 2],index: 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[, [1],[1,2]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helper(list:[1, 2, 3],index: 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[, [1],[1,2],[1,2,3]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list:[1,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list:[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list:[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +315,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -228,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,6 +352,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -966,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,11 +1123,11 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1024,4 +1136,153 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:Y23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="11" width="10.83203125" style="7"/>
+    <col min="12" max="22" width="24" style="7" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:25" x14ac:dyDescent="0.2">
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="7:25" x14ac:dyDescent="0.2">
+      <c r="I9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="7:25" x14ac:dyDescent="0.2">
+      <c r="I10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2</v>
+      </c>
+      <c r="O10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="7:25" x14ac:dyDescent="0.2">
+      <c r="I11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="7:25" x14ac:dyDescent="0.2">
+      <c r="L12" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="7:25" x14ac:dyDescent="0.2">
+      <c r="L13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="7:25" x14ac:dyDescent="0.2">
+      <c r="M14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="7:25" x14ac:dyDescent="0.2">
+      <c r="N15" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C23" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lc.xlsx
+++ b/lc.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="6740" yWindow="460" windowWidth="22060" windowHeight="14840" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="5280" yWindow="440" windowWidth="23520" windowHeight="17540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
     <sheet name="442" sheetId="2" r:id="rId2"/>
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
     <sheet name="subsets" sheetId="4" r:id="rId4"/>
+    <sheet name="278. First Bad Version" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>index:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,12 +275,60 @@
     <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l  mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l mid r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left,mid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left, mid, right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left, mid,right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -295,8 +344,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +377,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -334,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,6 +429,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,11 +1212,11 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1142,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1285,4 +1374,126 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="B5:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="9"/>
+    <col min="5" max="5" width="13.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15">
+        <v>4</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lc.xlsx
+++ b/lc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="440" windowWidth="23520" windowHeight="17540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="5280" yWindow="460" windowWidth="23520" windowHeight="17540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
     <sheet name="subsets" sheetId="4" r:id="rId4"/>
     <sheet name="278. First Bad Version" sheetId="5" r:id="rId5"/>
+    <sheet name="lt112" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>index:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +322,14 @@
   </si>
   <si>
     <t>left, mid,right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,6 +459,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,11 +1224,11 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1380,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="B5:F10"/>
     </sheetView>
   </sheetViews>
@@ -1496,4 +1508,50 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C8:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lc.xlsx
+++ b/lc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="460" windowWidth="23520" windowHeight="17540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="5280" yWindow="460" windowWidth="23520" windowHeight="17540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="subsets" sheetId="4" r:id="rId4"/>
     <sheet name="278. First Bad Version" sheetId="5" r:id="rId5"/>
     <sheet name="lt112" sheetId="6" r:id="rId6"/>
+    <sheet name="Sort List" sheetId="7" r:id="rId7"/>
+    <sheet name="工作表3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>index:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +332,30 @@
   </si>
   <si>
     <t>cur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针求中间索引</t>
+    <rPh sb="0" eb="1">
+      <t>shuang zhi zhen</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qiu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>suo yin</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1514,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1554,4 +1580,93 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lc.xlsx
+++ b/lc.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>index:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,95 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>suo yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow  fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length是奇数时，结果一样</t>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ji shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yi yang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length是偶数时，fast从1开始的在偏左的位置</t>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ou shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>d</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>pian</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>d</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>wei zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论：</t>
+    <rPh sb="0" eb="1">
+      <t>jie lun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该观察length为2时的情况</t>
+    <rPh sb="0" eb="1">
+      <t>ying gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan cha</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>d</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qing k</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -385,6 +474,19 @@
       <name val="PingFang SC"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="7">
@@ -437,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,6 +592,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1584,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:H16"/>
+  <dimension ref="A10:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1595,12 +1699,12 @@
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0</v>
       </c>
@@ -1623,7 +1727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>68</v>
       </c>
@@ -1631,7 +1735,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>68</v>
       </c>
@@ -1639,7 +1743,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>68</v>
       </c>
@@ -1647,9 +1751,84 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
